--- a/文档/开发计划.xlsx
+++ b/文档/开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -361,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -387,6 +387,30 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,12 +426,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -425,21 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +819,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -828,18 +831,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -851,10 +854,10 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
@@ -881,10 +884,10 @@
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
@@ -897,22 +900,22 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="4"/>
@@ -921,14 +924,14 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="4">
         <v>42317</v>
       </c>
@@ -938,19 +941,19 @@
       <c r="H5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="4">
         <v>42320</v>
       </c>
@@ -960,103 +963,109 @@
       <c r="H6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="4">
         <v>42321</v>
       </c>
       <c r="G7" s="4">
-        <v>42322</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="17"/>
+        <v>42324</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="23"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="4">
-        <v>42323</v>
+        <v>42324</v>
       </c>
       <c r="G8" s="4">
-        <v>42324</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="17"/>
+        <v>42326</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="23"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="4">
-        <v>42325</v>
+        <v>42326</v>
       </c>
       <c r="G9" s="4">
-        <v>42325</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="17"/>
+        <v>42326</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="23"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="15"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="4">
-        <v>42326</v>
+        <v>42327</v>
       </c>
       <c r="G10" s="4">
-        <v>42328</v>
+        <v>42329</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="15"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="4">
         <v>42329</v>
       </c>
@@ -1064,21 +1073,21 @@
         <v>42330</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="15"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="4">
         <v>42331</v>
       </c>
@@ -1086,19 +1095,19 @@
         <v>42333</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="4">
         <v>42334</v>
       </c>
@@ -1106,21 +1115,21 @@
         <v>42336</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="4">
         <v>42337</v>
       </c>
@@ -1128,19 +1137,19 @@
         <v>42338</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="14" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="4">
         <v>42339</v>
       </c>
@@ -1148,21 +1157,21 @@
         <v>42341</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="4">
         <v>42342</v>
       </c>
@@ -1170,19 +1179,19 @@
         <v>42345</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="14" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="4">
         <v>42346</v>
       </c>
@@ -1190,19 +1199,19 @@
         <v>42348</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="14" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="4">
         <v>42349</v>
       </c>
@@ -1210,19 +1219,19 @@
         <v>42351</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="4">
         <v>42352</v>
       </c>
@@ -1230,19 +1239,19 @@
         <v>42354</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="6">
         <v>42355</v>
       </c>
@@ -1250,23 +1259,13 @@
         <v>42357</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="18"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -1280,9 +1279,19 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/开发计划.xlsx
+++ b/文档/开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -361,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,6 +382,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,7 +831,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,18 +843,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -854,10 +866,10 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,10 +896,10 @@
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
@@ -900,22 +912,22 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="26" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="4"/>
@@ -924,14 +936,14 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="4">
         <v>42317</v>
       </c>
@@ -941,19 +953,19 @@
       <c r="H5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="4">
         <v>42320</v>
       </c>
@@ -963,19 +975,19 @@
       <c r="H6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="4">
         <v>42321</v>
       </c>
@@ -985,21 +997,21 @@
       <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="4">
         <v>42324</v>
       </c>
@@ -1009,19 +1021,19 @@
       <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="4">
         <v>42326</v>
       </c>
@@ -1031,125 +1043,135 @@
       <c r="H9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="4">
         <v>42327</v>
       </c>
       <c r="G10" s="4">
-        <v>42329</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="23"/>
+        <v>42328</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="27"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="4">
-        <v>42329</v>
+        <v>42333</v>
       </c>
       <c r="G11" s="4">
-        <v>42330</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="23"/>
+        <v>42336</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="27"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="4">
+        <v>42329</v>
+      </c>
+      <c r="G12" s="4">
         <v>42331</v>
       </c>
-      <c r="G12" s="4">
-        <v>42333</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="23"/>
+      <c r="H12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="27"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="4">
-        <v>42334</v>
+        <v>42332</v>
       </c>
       <c r="G13" s="4">
-        <v>42336</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="23"/>
+        <v>42332</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="27"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="4">
         <v>42337</v>
       </c>
       <c r="G14" s="4">
         <v>42338</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="27"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="4">
         <v>42339</v>
       </c>
@@ -1157,21 +1179,21 @@
         <v>42341</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="4">
         <v>42342</v>
       </c>
@@ -1179,19 +1201,19 @@
         <v>42345</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="4">
         <v>42346</v>
       </c>
@@ -1199,19 +1221,19 @@
         <v>42348</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="4">
         <v>42349</v>
       </c>
@@ -1219,19 +1241,19 @@
         <v>42351</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="23"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="4">
         <v>42352</v>
       </c>
@@ -1239,19 +1261,19 @@
         <v>42354</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="6">
         <v>42355</v>
       </c>
@@ -1259,7 +1281,7 @@
         <v>42357</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="6"/>
     </row>
   </sheetData>

--- a/文档/开发计划.xlsx
+++ b/文档/开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -361,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -402,19 +402,55 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -422,39 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +834,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -843,18 +846,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -866,10 +869,10 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
@@ -896,10 +899,10 @@
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
@@ -912,22 +915,22 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="4"/>
@@ -936,14 +939,14 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="4">
         <v>42317</v>
       </c>
@@ -953,19 +956,19 @@
       <c r="H5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="4">
         <v>42320</v>
       </c>
@@ -975,19 +978,19 @@
       <c r="H6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="4">
         <v>42321</v>
       </c>
@@ -997,21 +1000,21 @@
       <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="27"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="4">
         <v>42324</v>
       </c>
@@ -1021,19 +1024,19 @@
       <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="27"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="4">
         <v>42326</v>
       </c>
@@ -1043,21 +1046,21 @@
       <c r="H9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="27"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="4">
         <v>42327</v>
       </c>
@@ -1067,19 +1070,19 @@
       <c r="H10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="27"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="4">
         <v>42333</v>
       </c>
@@ -1089,21 +1092,21 @@
       <c r="H11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="27"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="4">
         <v>42329</v>
       </c>
@@ -1113,19 +1116,19 @@
       <c r="H12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="27"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="14" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="4">
         <v>42332</v>
       </c>
@@ -1135,21 +1138,21 @@
       <c r="H13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="27"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="4">
         <v>42337</v>
       </c>
@@ -1159,41 +1162,43 @@
       <c r="H14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="27"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="14" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="4">
         <v>42339</v>
       </c>
       <c r="G15" s="4">
         <v>42341</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="27"/>
+      <c r="H15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="25"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="4">
         <v>42342</v>
       </c>
@@ -1201,19 +1206,19 @@
         <v>42345</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="27"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="14" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="4">
         <v>42346</v>
       </c>
@@ -1221,19 +1226,19 @@
         <v>42348</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="14" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="4">
         <v>42349</v>
       </c>
@@ -1241,19 +1246,19 @@
         <v>42351</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="4">
         <v>42352</v>
       </c>
@@ -1261,19 +1266,19 @@
         <v>42354</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="14" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="6">
         <v>42355</v>
       </c>
@@ -1281,11 +1286,23 @@
         <v>42357</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="28"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A1:J1"/>
@@ -1302,18 +1319,6 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
